--- a/sofaplayer/Bundesliga/SC Freiburg_stats.xlsx
+++ b/sofaplayer/Bundesliga/SC Freiburg_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>1019321</v>
       </c>
       <c r="E2" t="n">
-        <v>6.6941176470588</v>
+        <v>6.6944444444444</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8273</v>
+        <v>6.0294</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4</v>
+        <v>135.8</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N2" t="n">
         <v>12</v>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>20</v>
+        <v>18.518518518519</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -1101,40 +1101,40 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.25824621</v>
+        <v>0.27586351</v>
       </c>
       <c r="AB2" t="n">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AC2" t="n">
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AF2" t="n">
-        <v>60.283687943262</v>
+        <v>61.184210526316</v>
       </c>
       <c r="AG2" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AH2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>28.571428571429</v>
+        <v>44.444444444444</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>24</v>
       </c>
       <c r="AS2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT2" t="n">
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>46.666666666667</v>
+        <v>50</v>
       </c>
       <c r="BA2" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BB2" t="n">
-        <v>48</v>
+        <v>48.101265822785</v>
       </c>
       <c r="BC2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BD2" t="n">
-        <v>43.421052631579</v>
+        <v>43.20987654321</v>
       </c>
       <c r="BE2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BF2" t="n">
-        <v>52.702702702703</v>
+        <v>53.246753246753</v>
       </c>
       <c r="BG2" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BH2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BI2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ2" t="n">
         <v>2</v>
@@ -1221,28 +1221,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>113.8</v>
+        <v>120.5</v>
       </c>
       <c r="BR2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS2" t="n">
         <v>6</v>
       </c>
       <c r="BT2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW2" t="n">
         <v>2</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CA2" t="n">
         <v>7</v>
       </c>
       <c r="CB2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC2" t="n">
         <v>4</v>
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="CK2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CS2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CT2" t="n">
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="CV2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="CZ2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="DA2" t="n">
         <v>1</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="DG2" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>1020422</v>
       </c>
       <c r="E3" t="n">
-        <v>6.8</v>
+        <v>6.7588235294118</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>1008</v>
+        <v>1066</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.8033</v>
+        <v>2.8305</v>
       </c>
       <c r="L3" t="n">
-        <v>336</v>
+        <v>355.33333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
@@ -1424,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>11.111111111111</v>
+        <v>10.714285714286</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.31404467</v>
+        <v>1.31470261</v>
       </c>
       <c r="AB3" t="n">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1469,28 +1469,28 @@
         <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AF3" t="n">
-        <v>75.875486381323</v>
+        <v>75.95419847328201</v>
       </c>
       <c r="AG3" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AH3" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AI3" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AJ3" t="n">
         <v>86</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
-        <v>63.157894736842</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
         <v>5</v>
@@ -1508,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
@@ -1538,13 +1538,13 @@
         <v>39</v>
       </c>
       <c r="BB3" t="n">
-        <v>40.625</v>
+        <v>38.613861386139</v>
       </c>
       <c r="BC3" t="n">
         <v>32</v>
       </c>
       <c r="BD3" t="n">
-        <v>42.666666666667</v>
+        <v>40</v>
       </c>
       <c r="BE3" t="n">
         <v>7</v>
@@ -1553,7 +1553,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG3" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BH3" t="n">
         <v>12</v>
@@ -1577,28 +1577,28 @@
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>108.8</v>
+        <v>114.9</v>
       </c>
       <c r="BR3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS3" t="n">
         <v>5</v>
       </c>
       <c r="BT3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>15</v>
       </c>
       <c r="CA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="CC3" t="n">
         <v>16</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="CU3" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="CV3" t="n">
         <v>14</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DA3" t="n">
         <v>10</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="DG3" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>280009</v>
       </c>
       <c r="E4" t="n">
-        <v>6.665</v>
+        <v>6.6428571428571</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>1278</v>
+        <v>1368</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -1765,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.7154</v>
+        <v>2.7799</v>
       </c>
       <c r="L4" t="n">
-        <v>1278</v>
+        <v>1368</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" t="n">
         <v>10</v>
@@ -1780,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4.7619047619048</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,67 +1813,67 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.48691829</v>
+        <v>1.49601747</v>
       </c>
       <c r="AB4" t="n">
-        <v>575</v>
+        <v>617</v>
       </c>
       <c r="AC4" t="n">
         <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="AF4" t="n">
-        <v>69.565217391304</v>
+        <v>68.274111675127</v>
       </c>
       <c r="AG4" t="n">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="AH4" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AI4" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AJ4" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="n">
         <v>3</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>1</v>
       </c>
       <c r="AN4" t="n">
-        <v>16.666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU4" t="n">
         <v>4</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>3</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -1888,37 +1888,37 @@
         <v>6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>40</v>
+        <v>37.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="BB4" t="n">
-        <v>47.802197802198</v>
+        <v>47.179487179487</v>
       </c>
       <c r="BC4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD4" t="n">
-        <v>46.913580246914</v>
+        <v>45.882352941176</v>
       </c>
       <c r="BE4" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="BF4" t="n">
-        <v>48.514851485149</v>
+        <v>48.181818181818</v>
       </c>
       <c r="BG4" t="n">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="BH4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI4" t="n">
         <v>20</v>
       </c>
       <c r="BJ4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK4" t="n">
         <v>0</v>
@@ -1933,22 +1933,22 @@
         <v>2</v>
       </c>
       <c r="BO4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>133.3</v>
+        <v>139.5</v>
       </c>
       <c r="BR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS4" t="n">
         <v>2</v>
       </c>
       <c r="BT4" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>14</v>
       </c>
       <c r="CC4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CD4" t="n">
         <v>7</v>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CK4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -2020,37 +2020,37 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
+        <v>17</v>
+      </c>
+      <c r="CS4" t="n">
         <v>16</v>
       </c>
-      <c r="CS4" t="n">
-        <v>15</v>
-      </c>
       <c r="CT4" t="n">
+        <v>8</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>103</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>57</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
         <v>6</v>
       </c>
-      <c r="CU4" t="n">
-        <v>95</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>52</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>5</v>
-      </c>
       <c r="DA4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB4" t="n">
-        <v>38.461538461538</v>
+        <v>42.857142857143</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,16 +2062,16 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="DG4" t="n">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
       </c>
       <c r="DI4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ4" t="n">
         <v>2163312</v>
@@ -2103,16 +2103,16 @@
         <v>1131002</v>
       </c>
       <c r="E5" t="n">
-        <v>6.7222222222222</v>
+        <v>6.6947368421053</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>643</v>
+        <v>715</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2121,22 +2121,22 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.6144</v>
+        <v>1.6627</v>
       </c>
       <c r="L5" t="n">
-        <v>160.75</v>
+        <v>178.75</v>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>16.666666666667</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2169,46 +2169,46 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.12216515</v>
+        <v>1.21223335</v>
       </c>
       <c r="AB5" t="n">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="n">
-        <v>77.19298245614</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI5" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AJ5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="n">
         <v>3</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN5" t="n">
-        <v>26.315789473684</v>
+        <v>27.906976744186</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -2220,13 +2220,13 @@
         <v>1</v>
       </c>
       <c r="AR5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -2241,37 +2241,37 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
-        <v>31.428571428571</v>
+        <v>31.578947368421</v>
       </c>
       <c r="BA5" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BB5" t="n">
-        <v>42.241379310345</v>
+        <v>41.6</v>
       </c>
       <c r="BC5" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BD5" t="n">
-        <v>45</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BE5" t="n">
         <v>4</v>
       </c>
       <c r="BF5" t="n">
-        <v>25</v>
+        <v>23.529411764706</v>
       </c>
       <c r="BG5" t="n">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="BH5" t="n">
         <v>9</v>
       </c>
       <c r="BI5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BJ5" t="n">
         <v>1</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>121</v>
+        <v>127.2</v>
       </c>
       <c r="BR5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS5" t="n">
         <v>4</v>
       </c>
       <c r="BT5" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2322,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="BZ5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CA5" t="n">
         <v>8</v>
       </c>
       <c r="CB5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CC5" t="n">
         <v>7</v>
@@ -2352,43 +2352,43 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
         <v>11</v>
       </c>
-      <c r="CK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>9</v>
-      </c>
       <c r="CS5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CT5" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="CU5" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="CV5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DA5" t="n">
         <v>6</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="DG5" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>1508537</v>
       </c>
       <c r="E6" t="n">
-        <v>6.6</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2477,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0296</v>
+        <v>0.1197</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2525,34 +2525,34 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03707024</v>
+        <v>0.04416252</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>82.35294117647101</v>
+        <v>86.363636363636</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK6" t="n">
         <v>1</v>
@@ -2567,28 +2567,28 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -2600,34 +2600,34 @@
         <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>38.461538461538</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BC6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
-        <v>38.461538461538</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BG6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BH6" t="n">
         <v>2</v>
       </c>
       <c r="BI6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ6" t="n">
         <v>1</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>13.2</v>
+        <v>20</v>
       </c>
       <c r="BR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA6" t="n">
         <v>1</v>
       </c>
       <c r="CB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC6" t="n">
         <v>0</v>
@@ -2732,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CT6" t="n">
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="DA6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB6" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="DG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>171961</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0142857142857</v>
+        <v>6.9863636363636</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
         <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>1043</v>
+        <v>1061</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -2833,13 +2833,13 @@
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6546</v>
+        <v>4.6712</v>
       </c>
       <c r="L7" t="n">
-        <v>173.83333333333</v>
+        <v>176.83333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
         <v>6</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>33.333333333333</v>
+        <v>31.578947368421</v>
       </c>
       <c r="Q7" t="n">
         <v>4</v>
@@ -2881,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.02086651</v>
+        <v>3.03750771</v>
       </c>
       <c r="AB7" t="n">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -2893,34 +2893,34 @@
         <v>29</v>
       </c>
       <c r="AE7" t="n">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AF7" t="n">
-        <v>83.098591549296</v>
+        <v>83.137254901961</v>
       </c>
       <c r="AG7" t="n">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="AH7" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AI7" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AJ7" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>61.538461538462</v>
+        <v>62.686567164179</v>
       </c>
       <c r="AM7" t="n">
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>26.315789473684</v>
+        <v>25.974025974026</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -2935,13 +2935,13 @@
         <v>42</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV7" t="n">
         <v>1</v>
@@ -2962,13 +2962,13 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>54.347826086957</v>
+        <v>52.083333333333</v>
       </c>
       <c r="BC7" t="n">
         <v>20</v>
       </c>
       <c r="BD7" t="n">
-        <v>51.282051282051</v>
+        <v>48.780487804878</v>
       </c>
       <c r="BE7" t="n">
         <v>5</v>
@@ -2977,10 +2977,10 @@
         <v>71.428571428571</v>
       </c>
       <c r="BG7" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BH7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI7" t="n">
         <v>7</v>
@@ -3001,22 +3001,22 @@
         <v>1</v>
       </c>
       <c r="BO7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>147.3</v>
+        <v>153.7</v>
       </c>
       <c r="BR7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS7" t="n">
         <v>7</v>
       </c>
       <c r="BT7" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>11</v>
       </c>
       <c r="CA7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB7" t="n">
         <v>6</v>
       </c>
       <c r="CC7" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="CD7" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>16</v>
       </c>
       <c r="CK7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL7" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>10</v>
       </c>
       <c r="CT7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CU7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CV7" t="n">
         <v>2</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="DA7" t="n">
         <v>2</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="DG7" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>569784</v>
       </c>
       <c r="E9" t="n">
-        <v>6.9</v>
+        <v>6.8863636363636</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3545,22 +3545,22 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6228</v>
+        <v>2.8827</v>
       </c>
       <c r="L9" t="n">
-        <v>945</v>
+        <v>990</v>
       </c>
       <c r="M9" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>6.8965517241379</v>
+        <v>6.0606060606061</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3593,40 +3593,40 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.13846062</v>
+        <v>1.17384022</v>
       </c>
       <c r="AB9" t="n">
-        <v>1173</v>
+        <v>1234</v>
       </c>
       <c r="AC9" t="n">
         <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="AF9" t="n">
-        <v>82.373271889401</v>
+        <v>81.888035126235</v>
       </c>
       <c r="AG9" t="n">
-        <v>868</v>
+        <v>911</v>
       </c>
       <c r="AH9" t="n">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AI9" t="n">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="AJ9" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>39.285714285714</v>
+        <v>40.625</v>
       </c>
       <c r="AM9" t="n">
         <v>1</v>
@@ -3638,22 +3638,22 @@
         <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AQ9" t="n">
         <v>9</v>
       </c>
       <c r="AR9" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>3</v>
@@ -3671,31 +3671,31 @@
         <v>68.75</v>
       </c>
       <c r="BA9" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BB9" t="n">
-        <v>58.918918918919</v>
+        <v>58.638743455497</v>
       </c>
       <c r="BC9" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BD9" t="n">
-        <v>63.551401869159</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BE9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BF9" t="n">
-        <v>52.564102564103</v>
+        <v>51.851851851852</v>
       </c>
       <c r="BG9" t="n">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="BH9" t="n">
         <v>16</v>
       </c>
       <c r="BI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ9" t="n">
         <v>1</v>
@@ -3713,28 +3713,28 @@
         <v>5</v>
       </c>
       <c r="BO9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>144.9</v>
+        <v>151.5</v>
       </c>
       <c r="BR9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS9" t="n">
         <v>2</v>
       </c>
       <c r="BT9" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB9" t="n">
         <v>11</v>
       </c>
       <c r="CC9" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="CD9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3776,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CK9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL9" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CS9" t="n">
         <v>16</v>
@@ -3809,10 +3809,10 @@
         <v>10</v>
       </c>
       <c r="CU9" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="CV9" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="DA9" t="n">
         <v>26</v>
       </c>
       <c r="DB9" t="n">
-        <v>56.521739130435</v>
+        <v>55.31914893617</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="DG9" t="n">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>914755</v>
       </c>
       <c r="E10" t="n">
-        <v>6.70625</v>
+        <v>6.6647058823529</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>927</v>
+        <v>1017</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0.9536</v>
       </c>
       <c r="L10" t="n">
-        <v>927</v>
+        <v>1017</v>
       </c>
       <c r="M10" t="n">
         <v>7</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6223121700000001</v>
+        <v>0.75491517</v>
       </c>
       <c r="AB10" t="n">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -3961,37 +3961,37 @@
         <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AF10" t="n">
-        <v>87.105263157895</v>
+        <v>85.60794044665001</v>
       </c>
       <c r="AG10" t="n">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="AH10" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AI10" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
         <v>10</v>
       </c>
       <c r="AL10" t="n">
-        <v>58.823529411765</v>
+        <v>52.631578947368</v>
       </c>
       <c r="AM10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN10" t="n">
-        <v>37.5</v>
+        <v>44.444444444444</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>11</v>
@@ -4000,13 +4000,13 @@
         <v>2</v>
       </c>
       <c r="AR10" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AS10" t="n">
         <v>6</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
         <v>2</v>
@@ -4030,25 +4030,25 @@
         <v>36</v>
       </c>
       <c r="BB10" t="n">
-        <v>41.379310344828</v>
+        <v>39.130434782609</v>
       </c>
       <c r="BC10" t="n">
         <v>28</v>
       </c>
       <c r="BD10" t="n">
-        <v>46.666666666667</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BE10" t="n">
         <v>8</v>
       </c>
       <c r="BF10" t="n">
-        <v>29.62962962963</v>
+        <v>27.586206896552</v>
       </c>
       <c r="BG10" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="BH10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BI10" t="n">
         <v>12</v>
@@ -4057,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="BK10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4069,22 +4069,22 @@
         <v>1</v>
       </c>
       <c r="BO10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>107.3</v>
+        <v>113.3</v>
       </c>
       <c r="BR10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4108,10 +4108,10 @@
         <v>2</v>
       </c>
       <c r="CB10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CD10" t="n">
         <v>9</v>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CK10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
@@ -4162,25 +4162,25 @@
         <v>15</v>
       </c>
       <c r="CT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU10" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="CV10" t="n">
+        <v>21</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
         <v>19</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>17</v>
       </c>
       <c r="DA10" t="n">
         <v>8</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="DG10" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>979820</v>
       </c>
       <c r="E11" t="n">
-        <v>6.8176470588235</v>
+        <v>6.7888888888889</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>1270</v>
+        <v>1358</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4257,13 +4257,13 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7046</v>
+        <v>0.7416</v>
       </c>
       <c r="L11" t="n">
-        <v>1270</v>
+        <v>1358</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -4305,40 +4305,40 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.78611736</v>
+        <v>0.86691166</v>
       </c>
       <c r="AB11" t="n">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="AC11" t="n">
         <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="AF11" t="n">
-        <v>84.19864559819401</v>
+        <v>83.760683760684</v>
       </c>
       <c r="AG11" t="n">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="AH11" t="n">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="AI11" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AJ11" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>47.058823529412</v>
+        <v>47.222222222222</v>
       </c>
       <c r="AM11" t="n">
         <v>3</v>
@@ -4356,13 +4356,13 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU11" t="n">
         <v>4</v>
@@ -4377,37 +4377,37 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>50</v>
+        <v>52.173913043478</v>
       </c>
       <c r="BA11" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BB11" t="n">
-        <v>59.130434782609</v>
+        <v>57.258064516129</v>
       </c>
       <c r="BC11" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="BD11" t="n">
-        <v>67.777777777778</v>
+        <v>65.979381443299</v>
       </c>
       <c r="BE11" t="n">
         <v>7</v>
       </c>
       <c r="BF11" t="n">
-        <v>28</v>
+        <v>25.925925925926</v>
       </c>
       <c r="BG11" t="n">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="BH11" t="n">
         <v>12</v>
       </c>
       <c r="BI11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BJ11" t="n">
         <v>1</v>
@@ -4425,28 +4425,28 @@
         <v>2</v>
       </c>
       <c r="BO11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>115.9</v>
+        <v>122.2</v>
       </c>
       <c r="BR11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS11" t="n">
         <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -4458,16 +4458,16 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA11" t="n">
         <v>5</v>
       </c>
       <c r="CB11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CD11" t="n">
         <v>7</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CK11" t="n">
         <v>2</v>
@@ -4512,19 +4512,19 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CS11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CT11" t="n">
         <v>18</v>
       </c>
       <c r="CU11" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="CV11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="DA11" t="n">
         <v>18</v>
@@ -4554,16 +4554,16 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="DG11" t="n">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DJ11" t="n">
         <v>2198887</v>
@@ -4951,16 +4951,16 @@
         <v>836711</v>
       </c>
       <c r="E13" t="n">
-        <v>6.75625</v>
+        <v>6.7235294117647</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
         <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>1.6317</v>
       </c>
       <c r="L13" t="n">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="M13" t="n">
         <v>15</v>
@@ -5017,10 +5017,10 @@
         <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.04782601</v>
+        <v>3.04946213</v>
       </c>
       <c r="AB13" t="n">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="AC13" t="n">
         <v>2</v>
@@ -5029,22 +5029,22 @@
         <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AF13" t="n">
-        <v>75.250836120401</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AH13" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="n">
         <v>11</v>
@@ -5056,13 +5056,13 @@
         <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>30.379746835443</v>
+        <v>29.62962962963</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
@@ -5095,16 +5095,16 @@
         <v>28</v>
       </c>
       <c r="BA13" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BB13" t="n">
-        <v>44.186046511628</v>
+        <v>44.615384615385</v>
       </c>
       <c r="BC13" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD13" t="n">
-        <v>48.181818181818</v>
+        <v>48.648648648649</v>
       </c>
       <c r="BE13" t="n">
         <v>4</v>
@@ -5113,7 +5113,7 @@
         <v>21.052631578947</v>
       </c>
       <c r="BG13" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="BH13" t="n">
         <v>11</v>
@@ -5137,22 +5137,22 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>108.1</v>
+        <v>114.3</v>
       </c>
       <c r="BR13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS13" t="n">
         <v>3</v>
       </c>
       <c r="BT13" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>13</v>
       </c>
       <c r="CK13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>25</v>
       </c>
       <c r="CT13" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="CU13" t="n">
         <v>72</v>
@@ -5254,7 +5254,7 @@
         <v>15</v>
       </c>
       <c r="DB13" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DG13" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>142259</v>
       </c>
       <c r="E14" t="n">
-        <v>6.93</v>
+        <v>6.8904761904762</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" t="n">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5373,40 +5373,40 @@
         <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.79199727</v>
+        <v>1.87636147</v>
       </c>
       <c r="AB14" t="n">
-        <v>1418</v>
+        <v>1471</v>
       </c>
       <c r="AC14" t="n">
         <v>4</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="AF14" t="n">
-        <v>87.25065047701599</v>
+        <v>87.047939444912</v>
       </c>
       <c r="AG14" t="n">
-        <v>1153</v>
+        <v>1189</v>
       </c>
       <c r="AH14" t="n">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="AI14" t="n">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="AJ14" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AK14" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AL14" t="n">
-        <v>47.857142857143</v>
+        <v>47.586206896552</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
@@ -5415,28 +5415,28 @@
         <v>12.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
         <v>14</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS14" t="n">
         <v>6</v>
       </c>
       <c r="AT14" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -5445,37 +5445,37 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BA14" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BB14" t="n">
-        <v>60.571428571429</v>
+        <v>60.893854748603</v>
       </c>
       <c r="BC14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD14" t="n">
-        <v>59.574468085106</v>
+        <v>61.224489795918</v>
       </c>
       <c r="BE14" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BF14" t="n">
-        <v>60.9375</v>
+        <v>60.769230769231</v>
       </c>
       <c r="BG14" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="BH14" t="n">
         <v>9</v>
       </c>
       <c r="BI14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ14" t="n">
         <v>0</v>
@@ -5493,22 +5493,22 @@
         <v>5</v>
       </c>
       <c r="BO14" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>138.6</v>
+        <v>144.7</v>
       </c>
       <c r="BR14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS14" t="n">
         <v>3</v>
       </c>
       <c r="BT14" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>2</v>
       </c>
       <c r="CC14" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="CD14" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
@@ -5580,19 +5580,19 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CS14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT14" t="n">
         <v>8</v>
       </c>
       <c r="CU14" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CV14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="DA14" t="n">
         <v>7</v>
@@ -5622,16 +5622,16 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="DG14" t="n">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DJ14" t="n">
         <v>2163308</v>
@@ -6019,16 +6019,16 @@
         <v>142231</v>
       </c>
       <c r="E16" t="n">
-        <v>6.5785714285714</v>
+        <v>6.5533333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>826</v>
+        <v>916</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6085,64 +6085,64 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.72877316</v>
+        <v>1.81674036</v>
       </c>
       <c r="AB16" t="n">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="AC16" t="n">
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="AF16" t="n">
-        <v>82.04225352112699</v>
+        <v>80.983606557377</v>
       </c>
       <c r="AG16" t="n">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="AH16" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AI16" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AJ16" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>42.105263157895</v>
+        <v>41.463414634146</v>
       </c>
       <c r="AM16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>41.025641025641</v>
+        <v>38.636363636364</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
@@ -6163,25 +6163,25 @@
         <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>45.454545454545</v>
+        <v>45.945945945946</v>
       </c>
       <c r="BC16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD16" t="n">
-        <v>45.833333333333</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BE16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF16" t="n">
-        <v>44.444444444444</v>
+        <v>50</v>
       </c>
       <c r="BG16" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="BH16" t="n">
         <v>6</v>
@@ -6205,22 +6205,22 @@
         <v>1</v>
       </c>
       <c r="BO16" t="n">
+        <v>18</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="BR16" t="n">
         <v>15</v>
       </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>14</v>
-      </c>
       <c r="BS16" t="n">
         <v>2</v>
       </c>
       <c r="BT16" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6247,10 +6247,10 @@
         <v>2</v>
       </c>
       <c r="CC16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CD16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6268,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6292,16 +6292,16 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CS16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CT16" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="CU16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CV16" t="n">
         <v>5</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="DA16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB16" t="n">
-        <v>57.142857142857</v>
+        <v>62.5</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="DG16" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ16" t="n">
         <v>2163298</v>
@@ -7085,16 +7085,16 @@
         <v>1131337</v>
       </c>
       <c r="E19" t="n">
-        <v>6.5636363636364</v>
+        <v>6.5333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7151,10 +7151,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03145039</v>
+        <v>0.03182365</v>
       </c>
       <c r="AB19" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7163,19 +7163,19 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AF19" t="n">
-        <v>89.36170212766</v>
+        <v>89.12133891213399</v>
       </c>
       <c r="AG19" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AH19" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AI19" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU19" t="n">
         <v>1</v>
@@ -7223,31 +7223,31 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ19" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB19" t="n">
-        <v>51.351351351351</v>
+        <v>51.282051282051</v>
       </c>
       <c r="BC19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD19" t="n">
-        <v>72.222222222222</v>
+        <v>73.68421052631599</v>
       </c>
       <c r="BE19" t="n">
         <v>6</v>
       </c>
       <c r="BF19" t="n">
-        <v>31.578947368421</v>
+        <v>30</v>
       </c>
       <c r="BG19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BH19" t="n">
         <v>2</v>
@@ -7271,22 +7271,22 @@
         <v>2</v>
       </c>
       <c r="BO19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>72.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="BR19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK19" t="n">
         <v>1</v>
@@ -7361,16 +7361,16 @@
         <v>0</v>
       </c>
       <c r="CS19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CT19" t="n">
         <v>0</v>
       </c>
       <c r="CU19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DG19" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="DH19" t="n">
         <v>10</v>
@@ -7441,16 +7441,16 @@
         <v>1596573</v>
       </c>
       <c r="E20" t="n">
-        <v>6.94</v>
+        <v>6.85</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7507,10 +7507,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02562313</v>
+        <v>0.04541323</v>
       </c>
       <c r="AB20" t="n">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7519,28 +7519,28 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="AF20" t="n">
-        <v>89.915966386555</v>
+        <v>88</v>
       </c>
       <c r="AG20" t="n">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="AH20" t="n">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL20" t="n">
-        <v>33.333333333333</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7549,64 +7549,64 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="BC20" t="n">
         <v>11</v>
       </c>
-      <c r="AS20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>9</v>
-      </c>
       <c r="BD20" t="n">
-        <v>56.25</v>
+        <v>57.894736842105</v>
       </c>
       <c r="BE20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF20" t="n">
-        <v>54.545454545455</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BG20" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="BH20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI20" t="n">
         <v>4</v>
@@ -7627,106 +7627,106 @@
         <v>1</v>
       </c>
       <c r="BO20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="n">
         <v>5</v>
       </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>12</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>4</v>
-      </c>
       <c r="CT20" t="n">
         <v>2</v>
       </c>
       <c r="CU20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CV20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7738,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="DA20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DB20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="DG20" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="DH20" t="n">
         <v>2</v>
       </c>
       <c r="DI20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DJ20" t="n">
         <v>2592136</v>
@@ -7797,16 +7797,16 @@
         <v>103442</v>
       </c>
       <c r="E21" t="n">
-        <v>6.5888888888889</v>
+        <v>6.58</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7814,12 +7814,14 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0.0271</v>
+      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -7861,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.76306111</v>
+        <v>0.76468331</v>
       </c>
       <c r="AB21" t="n">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="AC21" t="n">
         <v>1</v>
@@ -7873,28 +7875,28 @@
         <v>3</v>
       </c>
       <c r="AE21" t="n">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="AF21" t="n">
-        <v>81.454545454545</v>
+        <v>81.91126279863499</v>
       </c>
       <c r="AG21" t="n">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="AH21" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AI21" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL21" t="n">
-        <v>28.571428571429</v>
+        <v>29.72972972973</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7903,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP21" t="n">
         <v>2</v>
@@ -7912,13 +7914,13 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7933,31 +7935,31 @@
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB21" t="n">
-        <v>60.714285714286</v>
+        <v>60</v>
       </c>
       <c r="BC21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD21" t="n">
-        <v>33.333333333333</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BE21" t="n">
         <v>13</v>
       </c>
       <c r="BF21" t="n">
-        <v>81.25</v>
+        <v>76.470588235294</v>
       </c>
       <c r="BG21" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BH21" t="n">
         <v>4</v>
@@ -7981,28 +7983,28 @@
         <v>0</v>
       </c>
       <c r="BO21" t="n">
+        <v>11</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="BR21" t="n">
         <v>10</v>
       </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>9</v>
-      </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
       </c>
       <c r="BV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8014,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA21" t="n">
         <v>0</v>
@@ -8023,10 +8025,10 @@
         <v>2</v>
       </c>
       <c r="CC21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CD21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8047,7 +8049,7 @@
         <v>10</v>
       </c>
       <c r="CK21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL21" t="n">
         <v>0</v>
@@ -8071,16 +8073,16 @@
         <v>3</v>
       </c>
       <c r="CS21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT21" t="n">
         <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8092,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="DA21" t="n">
         <v>0</v>
@@ -8110,16 +8112,16 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="DG21" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="DH21" t="n">
         <v>3</v>
       </c>
       <c r="DI21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DJ21" t="n">
         <v>2198857</v>
@@ -8151,16 +8153,16 @@
         <v>980626</v>
       </c>
       <c r="E22" t="n">
-        <v>7.147619047619</v>
+        <v>7.1590909090909</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -8215,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.43502948</v>
+        <v>0.4444921</v>
       </c>
       <c r="AB22" t="n">
-        <v>1011</v>
+        <v>1075</v>
       </c>
       <c r="AC22" t="n">
         <v>1</v>
@@ -8227,28 +8229,28 @@
         <v>2</v>
       </c>
       <c r="AE22" t="n">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="AF22" t="n">
-        <v>65.483476132191</v>
+        <v>65.09216589861801</v>
       </c>
       <c r="AG22" t="n">
-        <v>817</v>
+        <v>868</v>
       </c>
       <c r="AH22" t="n">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="AI22" t="n">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="AJ22" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="n">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="n">
-        <v>41.139240506329</v>
+        <v>41.060903732809</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8266,13 +8268,13 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -8311,7 +8313,7 @@
         <v>100</v>
       </c>
       <c r="BG22" t="n">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="BH22" t="n">
         <v>0</v>
@@ -8329,28 +8331,28 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BN22" t="n">
         <v>5</v>
       </c>
       <c r="BO22" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BP22" t="n">
         <v>1</v>
       </c>
       <c r="BQ22" t="n">
-        <v>150.1</v>
+        <v>157.5</v>
       </c>
       <c r="BR22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8377,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="CD22" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8392,19 +8394,19 @@
         <v>1</v>
       </c>
       <c r="CH22" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CI22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CJ22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CK22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CM22" t="n">
         <v>14</v>
@@ -8413,7 +8415,7 @@
         <v>14</v>
       </c>
       <c r="CO22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -8446,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="DA22" t="n">
         <v>0</v>
@@ -8461,16 +8463,16 @@
         <v>0</v>
       </c>
       <c r="DE22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DF22" t="n">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="DG22" t="n">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="DH22" t="n">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
@@ -8484,7 +8486,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>1.7756</v>
+        <v>1.166</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Bundesliga/SC Freiburg_stats.xlsx
+++ b/sofaplayer/Bundesliga/SC Freiburg_stats.xlsx
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.27586351</v>
+        <v>0.27586341</v>
       </c>
       <c r="AB2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC2" t="n">
         <v>2</v>
@@ -1179,25 +1179,25 @@
         <v>50</v>
       </c>
       <c r="BA2" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BB2" t="n">
-        <v>48.101265822785</v>
+        <v>48.125</v>
       </c>
       <c r="BC2" t="n">
         <v>35</v>
       </c>
       <c r="BD2" t="n">
-        <v>43.20987654321</v>
+        <v>42.682926829268</v>
       </c>
       <c r="BE2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BF2" t="n">
-        <v>53.246753246753</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BG2" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BH2" t="n">
         <v>25</v>
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="CB2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC2" t="n">
         <v>4</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CV2" t="n">
         <v>36</v>
@@ -1460,7 +1460,7 @@
         <v>1.31470261</v>
       </c>
       <c r="AB3" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG3" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BH3" t="n">
         <v>12</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.49601747</v>
+        <v>1.49601751</v>
       </c>
       <c r="AB4" t="n">
         <v>617</v>
@@ -1909,7 +1909,7 @@
         <v>48.181818181818</v>
       </c>
       <c r="BG4" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BH4" t="n">
         <v>18</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.21223335</v>
+        <v>1.24753415</v>
       </c>
       <c r="AB5" t="n">
         <v>358</v>
@@ -3527,7 +3527,7 @@
         <v>569784</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8863636363636</v>
+        <v>6.8909090909091</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
@@ -3596,7 +3596,7 @@
         <v>1.17384022</v>
       </c>
       <c r="AB9" t="n">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="AC9" t="n">
         <v>2</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>151.5</v>
+        <v>151.6</v>
       </c>
       <c r="BR9" t="n">
         <v>22</v>
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="AR10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AS10" t="n">
         <v>6</v>
@@ -4305,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.86691166</v>
+        <v>0.86718786</v>
       </c>
       <c r="AB11" t="n">
         <v>750</v>
@@ -4317,10 +4317,10 @@
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF11" t="n">
-        <v>83.760683760684</v>
+        <v>83.97435897435901</v>
       </c>
       <c r="AG11" t="n">
         <v>468</v>
@@ -4329,7 +4329,7 @@
         <v>203</v>
       </c>
       <c r="AI11" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ11" t="n">
         <v>95</v>
@@ -4401,7 +4401,7 @@
         <v>25.925925925926</v>
       </c>
       <c r="BG11" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BH11" t="n">
         <v>12</v>
@@ -4440,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -5251,10 +5251,10 @@
         <v>25</v>
       </c>
       <c r="DA13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DB13" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5373,10 +5373,10 @@
         <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.87636147</v>
+        <v>1.88936787</v>
       </c>
       <c r="AB14" t="n">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="AC14" t="n">
         <v>4</v>
@@ -5385,10 +5385,10 @@
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AF14" t="n">
-        <v>87.047939444912</v>
+        <v>87.13204373423</v>
       </c>
       <c r="AG14" t="n">
         <v>1189</v>
@@ -5397,16 +5397,16 @@
         <v>618</v>
       </c>
       <c r="AI14" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AJ14" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK14" t="n">
         <v>69</v>
       </c>
       <c r="AL14" t="n">
-        <v>47.586206896552</v>
+        <v>47.916666666667</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
@@ -5415,7 +5415,7 @@
         <v>12.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>14</v>
@@ -5430,7 +5430,7 @@
         <v>6</v>
       </c>
       <c r="AT14" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -5469,7 +5469,7 @@
         <v>60.769230769231</v>
       </c>
       <c r="BG14" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BH14" t="n">
         <v>9</v>
@@ -5508,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="BT14" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>2</v>
       </c>
       <c r="CC14" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CD14" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="DA14" t="n">
         <v>7</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="DG14" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.81674036</v>
+        <v>1.82549806</v>
       </c>
       <c r="AB16" t="n">
         <v>509</v>
@@ -6722,317 +6722,317 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lukas Kübler</t>
+          <t>Max Rosenfelder</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>142525</v>
+        <v>1131337</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7</v>
+        <v>6.5333333333333</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>1213</v>
+        <v>507</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1476</v>
+        <v>0.0154</v>
       </c>
       <c r="L18" t="n">
-        <v>606.5</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.03182365</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>318</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>213</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>89.12133891213399</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>239</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>159</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>54</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>47.619047619048</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>51.282051282051</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>73.68421052631599</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>30</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>35</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>26</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>19</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>14</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="DA18" t="n">
         <v>4</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>11.111111111111</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1.3068366</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>822</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>414</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>81.496062992126</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>508</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>223</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>191</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>93</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>42.592592592593</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>33</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>76</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>59.375</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>43</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>58.108108108108</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>33</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>61.111111111111</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>135</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>24</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>107.2</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>16</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>94</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>9</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>32</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>14</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>8</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>5</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>20</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>52</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>21</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>54</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>21</v>
-      </c>
       <c r="DB18" t="n">
-        <v>63.636363636364</v>
+        <v>50</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7044,19 +7044,19 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="DG18" t="n">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="DH18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DI18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2163332</v>
+        <v>2320085</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7078,341 +7078,341 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Max Rosenfelder</t>
+          <t>Lukas Kübler</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1131337</v>
+        <v>142525</v>
       </c>
       <c r="E19" t="n">
-        <v>6.5333333333333</v>
+        <v>6.7</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
+        <v>15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.1476</v>
+      </c>
+      <c r="L19" t="n">
+        <v>606.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>18</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11.111111111111</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.3068366</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>822</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>414</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>81.496062992126</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>508</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>223</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>191</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>93</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>42.592592592593</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AU19" t="n">
         <v>5</v>
       </c>
-      <c r="H19" t="n">
-        <v>507</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.03182365</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>318</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>213</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>89.12133891213399</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>239</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>159</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>76</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>43</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>58.108108108108</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>33</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>61.111111111111</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>135</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>94</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>32</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>14</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>8</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>20</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>52</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>21</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
         <v>54</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>47.619047619048</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>51.282051282051</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>73.68421052631599</v>
-      </c>
-      <c r="BE19" t="n">
+      <c r="DA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>63.636363636364</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>253</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>255</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="n">
         <v>6</v>
       </c>
-      <c r="BF19" t="n">
-        <v>30</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>35</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>12</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>26</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>8</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>19</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>14</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>4</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>50</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>167</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>72</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>10</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>2</v>
-      </c>
       <c r="DJ19" t="n">
-        <v>2320085</v>
+        <v>2163332</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.04541323</v>
+        <v>0.05307863</v>
       </c>
       <c r="AB20" t="n">
         <v>240</v>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CD22" t="n">
         <v>69</v>
@@ -8486,7 +8486,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>1.166</v>
+        <v>1.4019</v>
       </c>
     </row>
   </sheetData>
